--- a/service/data_sample_error-disp-on.xlsx
+++ b/service/data_sample_error-disp-on.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/86f1a29df5c25d6e/dev/minami/service/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66FF50E4-3D1E-440A-90BB-F2BB43B047D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:40009_{C60CF321-0656-4AE7-8BF7-E35A44168CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8188BA3-C357-4875-AE46-38CF87A096E6}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="1080" windowWidth="18510" windowHeight="12270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6945" yWindow="525" windowWidth="15405" windowHeight="12270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_sample_error-disp-on" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -86,6 +85,9 @@
     <t>圧力[kPa]9cm</t>
   </si>
   <si>
+    <t>圧力[kPa]10cm</t>
+  </si>
+  <si>
     <t>圧力[kPa]11cm</t>
   </si>
   <si>
@@ -480,10 +482,6 @@
   </si>
   <si>
     <t>S-220512-00045</t>
-  </si>
-  <si>
-    <t>圧力[kPa]10cm</t>
-    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -1433,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CX46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S28" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:V46"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12:BT12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -1504,270 +1502,270 @@
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:102" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1955,25 +1953,25 @@
     </row>
     <row r="3" spans="1:102" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
         <v>108</v>
-      </c>
-      <c r="B3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" t="s">
-        <v>107</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -2161,25 +2159,25 @@
     </row>
     <row r="4" spans="1:102" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -2367,25 +2365,25 @@
     </row>
     <row r="5" spans="1:102" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -2573,25 +2571,25 @@
     </row>
     <row r="6" spans="1:102" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -2747,7 +2745,7 @@
         <v>308</v>
       </c>
       <c r="BK6">
-        <v>1324</v>
+        <v>232</v>
       </c>
       <c r="BL6">
         <v>232</v>
@@ -2759,13 +2757,13 @@
         <v>232</v>
       </c>
       <c r="BO6">
-        <v>1299</v>
+        <v>232</v>
       </c>
       <c r="BP6">
-        <v>1486</v>
+        <v>232</v>
       </c>
       <c r="BQ6">
-        <v>1729</v>
+        <v>232</v>
       </c>
       <c r="BR6">
         <v>232</v>
@@ -2779,25 +2777,25 @@
     </row>
     <row r="7" spans="1:102" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -2974,7 +2972,7 @@
         <v>232</v>
       </c>
       <c r="BR7">
-        <v>733</v>
+        <v>232</v>
       </c>
       <c r="BS7">
         <v>232</v>
@@ -2985,25 +2983,25 @@
     </row>
     <row r="8" spans="1:102" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -3162,7 +3160,7 @@
         <v>232</v>
       </c>
       <c r="BL8">
-        <v>900</v>
+        <v>232</v>
       </c>
       <c r="BM8">
         <v>232</v>
@@ -3183,7 +3181,7 @@
         <v>232</v>
       </c>
       <c r="BS8">
-        <v>677</v>
+        <v>232</v>
       </c>
       <c r="BT8">
         <v>232</v>
@@ -3191,25 +3189,25 @@
     </row>
     <row r="9" spans="1:102" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -3368,7 +3366,7 @@
         <v>232</v>
       </c>
       <c r="BL9">
-        <v>2057</v>
+        <v>232</v>
       </c>
       <c r="BM9">
         <v>232</v>
@@ -3380,13 +3378,13 @@
         <v>232</v>
       </c>
       <c r="BP9">
-        <v>2042</v>
+        <v>232</v>
       </c>
       <c r="BQ9">
-        <v>2153</v>
+        <v>232</v>
       </c>
       <c r="BR9">
-        <v>288</v>
+        <v>232</v>
       </c>
       <c r="BS9">
         <v>232</v>
@@ -3397,25 +3395,25 @@
     </row>
     <row r="10" spans="1:102" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -3580,7 +3578,7 @@
         <v>232</v>
       </c>
       <c r="BN10">
-        <v>1223</v>
+        <v>232</v>
       </c>
       <c r="BO10">
         <v>232</v>
@@ -3589,10 +3587,10 @@
         <v>232</v>
       </c>
       <c r="BQ10">
-        <v>1446</v>
+        <v>232</v>
       </c>
       <c r="BR10">
-        <v>1729</v>
+        <v>232</v>
       </c>
       <c r="BS10">
         <v>232</v>
@@ -3603,25 +3601,25 @@
     </row>
     <row r="11" spans="1:102" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -3678,10 +3676,10 @@
         <v>232</v>
       </c>
       <c r="AD11">
-        <v>879</v>
+        <v>232</v>
       </c>
       <c r="AE11">
-        <v>1324</v>
+        <v>232</v>
       </c>
       <c r="AF11">
         <v>232</v>
@@ -3696,7 +3694,7 @@
         <v>232</v>
       </c>
       <c r="AJ11">
-        <v>1355</v>
+        <v>232</v>
       </c>
       <c r="AK11">
         <v>232</v>
@@ -3720,7 +3718,7 @@
         <v>232</v>
       </c>
       <c r="AR11">
-        <v>1294</v>
+        <v>232</v>
       </c>
       <c r="AS11">
         <v>232</v>
@@ -3744,7 +3742,7 @@
         <v>232</v>
       </c>
       <c r="AZ11">
-        <v>1279</v>
+        <v>232</v>
       </c>
       <c r="BA11">
         <v>232</v>
@@ -3777,7 +3775,7 @@
         <v>232</v>
       </c>
       <c r="BK11">
-        <v>920</v>
+        <v>232</v>
       </c>
       <c r="BL11">
         <v>232</v>
@@ -3798,7 +3796,7 @@
         <v>232</v>
       </c>
       <c r="BR11">
-        <v>844</v>
+        <v>232</v>
       </c>
       <c r="BS11">
         <v>232</v>
@@ -3809,231 +3807,231 @@
     </row>
     <row r="12" spans="1:102" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H12">
         <v>3</v>
       </c>
       <c r="M12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="N12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="O12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="P12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="Q12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="R12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="S12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="T12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="U12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="V12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="W12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="X12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="Y12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="Z12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="AA12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="AB12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="AC12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="AD12">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="AE12">
-        <v>783</v>
+        <v>308</v>
       </c>
       <c r="AF12">
-        <v>1471</v>
+        <v>308</v>
       </c>
       <c r="AG12">
-        <v>1638</v>
+        <v>308</v>
       </c>
       <c r="AH12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="AI12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="AJ12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="AK12">
-        <v>1653</v>
+        <v>308</v>
       </c>
       <c r="AL12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="AM12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="AN12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="AO12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="AP12">
-        <v>1648</v>
+        <v>308</v>
       </c>
       <c r="AQ12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="AR12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="AS12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="AT12">
-        <v>1648</v>
+        <v>308</v>
       </c>
       <c r="AU12">
-        <v>1739</v>
+        <v>308</v>
       </c>
       <c r="AV12">
-        <v>1825</v>
+        <v>308</v>
       </c>
       <c r="AW12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="AX12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="AY12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="AZ12">
-        <v>1880</v>
+        <v>308</v>
       </c>
       <c r="BA12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="BB12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="BC12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="BD12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="BE12">
-        <v>1875</v>
+        <v>308</v>
       </c>
       <c r="BF12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="BG12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="BH12">
-        <v>1845</v>
+        <v>308</v>
       </c>
       <c r="BI12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="BJ12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="BK12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="BL12">
-        <v>1840</v>
+        <v>308</v>
       </c>
       <c r="BM12">
-        <v>1845</v>
+        <v>308</v>
       </c>
       <c r="BN12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="BO12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="BP12">
-        <v>1653</v>
+        <v>308</v>
       </c>
       <c r="BQ12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="BR12">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="BS12">
-        <v>1708</v>
+        <v>308</v>
       </c>
       <c r="BT12">
-        <v>232</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:102" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -4221,25 +4219,25 @@
     </row>
     <row r="14" spans="1:102" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -4427,25 +4425,25 @@
     </row>
     <row r="15" spans="1:102" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -4633,25 +4631,25 @@
     </row>
     <row r="16" spans="1:102" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -4839,25 +4837,25 @@
     </row>
     <row r="17" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -5045,25 +5043,25 @@
     </row>
     <row r="18" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" t="s">
         <v>124</v>
-      </c>
-      <c r="B18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" t="s">
-        <v>123</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -5251,25 +5249,25 @@
     </row>
     <row r="19" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -5457,25 +5455,25 @@
     </row>
     <row r="20" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H20">
         <v>3</v>
@@ -5663,25 +5661,25 @@
     </row>
     <row r="21" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -5869,25 +5867,25 @@
     </row>
     <row r="22" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" t="s">
         <v>105</v>
-      </c>
-      <c r="F22" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" t="s">
-        <v>104</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -6075,25 +6073,25 @@
     </row>
     <row r="23" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" t="s">
         <v>105</v>
-      </c>
-      <c r="F23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" t="s">
-        <v>104</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -6281,25 +6279,25 @@
     </row>
     <row r="24" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" t="s">
         <v>105</v>
-      </c>
-      <c r="F24" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" t="s">
-        <v>104</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -6487,25 +6485,25 @@
     </row>
     <row r="25" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" t="s">
         <v>105</v>
-      </c>
-      <c r="F25" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" t="s">
-        <v>104</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -6693,25 +6691,25 @@
     </row>
     <row r="26" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" t="s">
         <v>105</v>
-      </c>
-      <c r="F26" t="s">
-        <v>106</v>
-      </c>
-      <c r="G26" t="s">
-        <v>104</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -6899,25 +6897,25 @@
     </row>
     <row r="27" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" t="s">
         <v>105</v>
-      </c>
-      <c r="F27" t="s">
-        <v>106</v>
-      </c>
-      <c r="G27" t="s">
-        <v>104</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -7105,25 +7103,25 @@
     </row>
     <row r="28" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E28" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" t="s">
         <v>105</v>
-      </c>
-      <c r="F28" t="s">
-        <v>106</v>
-      </c>
-      <c r="G28" t="s">
-        <v>104</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -7311,25 +7309,25 @@
     </row>
     <row r="29" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" t="s">
         <v>105</v>
-      </c>
-      <c r="F29" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29" t="s">
-        <v>104</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -7517,25 +7515,25 @@
     </row>
     <row r="30" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" t="s">
         <v>105</v>
-      </c>
-      <c r="F30" t="s">
-        <v>106</v>
-      </c>
-      <c r="G30" t="s">
-        <v>104</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -7723,25 +7721,25 @@
     </row>
     <row r="31" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" t="s">
         <v>105</v>
-      </c>
-      <c r="F31" t="s">
-        <v>106</v>
-      </c>
-      <c r="G31" t="s">
-        <v>104</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -7929,25 +7927,25 @@
     </row>
     <row r="32" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -8135,25 +8133,25 @@
     </row>
     <row r="33" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -8341,25 +8339,25 @@
     </row>
     <row r="34" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F34" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -8547,25 +8545,25 @@
     </row>
     <row r="35" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -8753,25 +8751,25 @@
     </row>
     <row r="36" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G36" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -8959,25 +8957,25 @@
     </row>
     <row r="37" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G37" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -9165,25 +9163,25 @@
     </row>
     <row r="38" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -9371,25 +9369,25 @@
     </row>
     <row r="39" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -9577,25 +9575,25 @@
     </row>
     <row r="40" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F40" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -9783,25 +9781,25 @@
     </row>
     <row r="41" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E41" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F41" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -9989,25 +9987,25 @@
     </row>
     <row r="42" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E42" t="s">
+        <v>106</v>
+      </c>
+      <c r="F42" t="s">
+        <v>107</v>
+      </c>
+      <c r="G42" t="s">
         <v>105</v>
-      </c>
-      <c r="F42" t="s">
-        <v>106</v>
-      </c>
-      <c r="G42" t="s">
-        <v>104</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -10195,25 +10193,25 @@
     </row>
     <row r="43" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E43" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" t="s">
+        <v>107</v>
+      </c>
+      <c r="G43" t="s">
         <v>105</v>
-      </c>
-      <c r="F43" t="s">
-        <v>106</v>
-      </c>
-      <c r="G43" t="s">
-        <v>104</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -10401,25 +10399,25 @@
     </row>
     <row r="44" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E44" t="s">
+        <v>106</v>
+      </c>
+      <c r="F44" t="s">
+        <v>107</v>
+      </c>
+      <c r="G44" t="s">
         <v>105</v>
-      </c>
-      <c r="F44" t="s">
-        <v>106</v>
-      </c>
-      <c r="G44" t="s">
-        <v>104</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -10607,25 +10605,25 @@
     </row>
     <row r="45" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D45" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G45" t="s">
         <v>105</v>
-      </c>
-      <c r="F45" t="s">
-        <v>106</v>
-      </c>
-      <c r="G45" t="s">
-        <v>104</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -10813,25 +10811,25 @@
     </row>
     <row r="46" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E46" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" t="s">
+        <v>107</v>
+      </c>
+      <c r="G46" t="s">
         <v>105</v>
-      </c>
-      <c r="F46" t="s">
-        <v>106</v>
-      </c>
-      <c r="G46" t="s">
-        <v>104</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -11019,7 +11017,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="V2:BJ46">
+  <conditionalFormatting sqref="M2:BT46">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>232</formula>
     </cfRule>
